--- a/output/corrected.xlsx
+++ b/output/corrected.xlsx
@@ -14,18 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="56">
-  <si>
-    <t>ARAFAT Léa</t>
-  </si>
-  <si>
-    <t>recherche_seq</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="55">
+  <si>
+    <t>AACHOUR Sarah</t>
+  </si>
+  <si>
+    <t>aire_carre</t>
   </si>
   <si>
     <t>test_0</t>
   </si>
   <si>
-    <t>TIMEOUT</t>
+    <t>INPUT_FOUND</t>
   </si>
   <si>
     <t>test_1</t>
@@ -37,151 +37,148 @@
     <t>test_3</t>
   </si>
   <si>
-    <t>test_4</t>
-  </si>
-  <si>
-    <t>test_5</t>
-  </si>
-  <si>
-    <t>recherche_dicho</t>
-  </si>
-  <si>
-    <t>BAH Gérard</t>
-  </si>
-  <si>
-    <t>BARUS Jeanne</t>
-  </si>
-  <si>
-    <t>BASDAS Hikmet</t>
-  </si>
-  <si>
-    <t>BENANI-DAKHAMA Oulaya</t>
-  </si>
-  <si>
-    <t>BOURSE Olivier</t>
-  </si>
-  <si>
-    <t>BUFFIN Paul</t>
-  </si>
-  <si>
-    <t>CHAPTAL Baptiste</t>
-  </si>
-  <si>
-    <t>CHURITTER Akash</t>
-  </si>
-  <si>
-    <t>DEVALLAND Maxence</t>
-  </si>
-  <si>
-    <t>DEVAUX Baptiste</t>
-  </si>
-  <si>
-    <t>DI COCCO Clarisse</t>
-  </si>
-  <si>
-    <t>DUTOIT Arnaud</t>
-  </si>
-  <si>
-    <t>FEYTE Mathilde</t>
-  </si>
-  <si>
-    <t>FISCHER Philéas</t>
-  </si>
-  <si>
-    <t>GAUBERT Antoine</t>
-  </si>
-  <si>
-    <t>GUERIN Martin</t>
-  </si>
-  <si>
-    <t>HAJJI Noam</t>
-  </si>
-  <si>
-    <t>HAYAT Alone</t>
-  </si>
-  <si>
-    <t>HUANG Kevin</t>
+    <t>somme</t>
+  </si>
+  <si>
+    <t>AMBARD-GUERRA Kylian</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ANANDARAJAH Kowshikk</t>
+  </si>
+  <si>
+    <t>ANDRE Celeste</t>
+  </si>
+  <si>
+    <t>BABIN Heloise</t>
+  </si>
+  <si>
+    <t>BADOULES Maxime</t>
+  </si>
+  <si>
+    <t>BARRAULT Priam</t>
   </si>
   <si>
     <t>INEXSISTANT</t>
   </si>
   <si>
-    <t>IBRAHIM Nassima</t>
-  </si>
-  <si>
-    <t>JOBLIN Tom</t>
+    <t>BAZZI Sally</t>
+  </si>
+  <si>
+    <t>BLAIS Nathanael</t>
+  </si>
+  <si>
+    <t>CHARRIER Fanny</t>
+  </si>
+  <si>
+    <t>WRONG</t>
+  </si>
+  <si>
+    <t>EFTIMIE SPITZ Adrien</t>
+  </si>
+  <si>
+    <t>FHIMA Mohamed Amine</t>
+  </si>
+  <si>
+    <t>GONCE Robin</t>
+  </si>
+  <si>
+    <t>GUILLOUX Elouen</t>
+  </si>
+  <si>
+    <t>ISRAEL Noam</t>
+  </si>
+  <si>
+    <t>KERBOUA Amine</t>
+  </si>
+  <si>
+    <t>KIM Ha-Min</t>
+  </si>
+  <si>
+    <t>LAGATHU Jean</t>
+  </si>
+  <si>
+    <t>LAO Julien</t>
+  </si>
+  <si>
+    <t>LAVAL Maé</t>
+  </si>
+  <si>
+    <t>LIM Paul</t>
+  </si>
+  <si>
+    <t>LORILLARD Antoine</t>
+  </si>
+  <si>
+    <t>LOUVET Ambroise</t>
+  </si>
+  <si>
+    <t>MANGEOT Lucas</t>
+  </si>
+  <si>
+    <t>MARTIN Kenzo</t>
+  </si>
+  <si>
+    <t>MAUREY-PHILIPPON Jules</t>
+  </si>
+  <si>
+    <t>MAZAT Alya</t>
+  </si>
+  <si>
+    <t>MENGUY--KLEIN Arthur</t>
+  </si>
+  <si>
+    <t>N'DIAYE Hantia</t>
+  </si>
+  <si>
+    <t>PACCOUD Meily</t>
+  </si>
+  <si>
+    <t>PANOSSIAN Lucie</t>
+  </si>
+  <si>
+    <t>POSTOLACHI Eric</t>
+  </si>
+  <si>
+    <t>POTTIE-MIROUSE Nathan</t>
   </si>
   <si>
     <t>SYNTAX_ERROR</t>
   </si>
   <si>
-    <t>JOURDAIN Charlotte</t>
-  </si>
-  <si>
-    <t>KANAAN Jean-Georges</t>
-  </si>
-  <si>
-    <t>LAPTEVA Nicole</t>
-  </si>
-  <si>
-    <t>LERMAN Clémence</t>
-  </si>
-  <si>
-    <t>MBAREK Oumayma</t>
-  </si>
-  <si>
-    <t>MOGET Joseph</t>
-  </si>
-  <si>
-    <t>OCHIN Armand</t>
-  </si>
-  <si>
-    <t>OURAOUI Mathéo</t>
-  </si>
-  <si>
-    <t>PRAT Anatole</t>
-  </si>
-  <si>
-    <t>RESCHE-RIGON Ivan</t>
-  </si>
-  <si>
-    <t>ROCHER Nicolas</t>
-  </si>
-  <si>
-    <t>RODIN Thomas</t>
-  </si>
-  <si>
-    <t>ROULET Alexia</t>
-  </si>
-  <si>
-    <t>ROUSSEAU Valentin</t>
-  </si>
-  <si>
-    <t>SABARLY--POUGNY Arthur</t>
-  </si>
-  <si>
-    <t>SEAL Rachel</t>
-  </si>
-  <si>
-    <t>SEDDIKI Adam</t>
-  </si>
-  <si>
-    <t>STARY Guillaume</t>
-  </si>
-  <si>
-    <t>THEBAULT Gabriel</t>
-  </si>
-  <si>
-    <t>THOMAS Elise</t>
-  </si>
-  <si>
-    <t>TSEZANA Thalie</t>
-  </si>
-  <si>
-    <t>VIJOROVIC Marko</t>
-  </si>
-  <si>
-    <t>WANE Fatoumata</t>
+    <t>QUENTIN Edigna</t>
+  </si>
+  <si>
+    <t>ROUSSET Constance</t>
+  </si>
+  <si>
+    <t>SAMAHA Dimitri</t>
+  </si>
+  <si>
+    <t>SANCHEZ Tom</t>
+  </si>
+  <si>
+    <t>STRABONI Jules</t>
+  </si>
+  <si>
+    <t>STRUCVIEL Pierre</t>
+  </si>
+  <si>
+    <t>SU Nino</t>
+  </si>
+  <si>
+    <t>THESSIEUX Julien</t>
+  </si>
+  <si>
+    <t>WILLM Sibylle</t>
+  </si>
+  <si>
+    <t>YAHIAOUI Malik</t>
+  </si>
+  <si>
+    <t>ZIRNHELT Esteban</t>
   </si>
 </sst>
 </file>
@@ -513,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D540"/>
+  <dimension ref="A1:D352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,8 +555,11 @@
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -567,18 +567,15 @@
     </row>
     <row r="6" spans="1:4">
       <c r="C6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -586,56 +583,59 @@
     </row>
     <row r="8" spans="1:4">
       <c r="C8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -643,7 +643,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -651,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -659,74 +659,80 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="C18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="C20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="C22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="C23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="C24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -740,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -748,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -756,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -764,88 +770,91 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="C30" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="C32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="C34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="C35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="C36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>12</v>
-      </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -853,7 +862,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -861,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -869,79 +878,85 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="C42" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="C44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="C46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="C47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="C48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -950,7 +965,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -958,7 +973,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -966,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -974,88 +989,91 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:4">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="C54" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="C56" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="C58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="C59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="C60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>14</v>
-      </c>
       <c r="B61" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1063,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1071,7 +1089,7 @@
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1079,79 +1097,85 @@
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="C66" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="B67" t="s">
-        <v>9</v>
-      </c>
       <c r="C67" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="C68" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:4">
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="C70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="C71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="C72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -1160,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1168,7 +1192,7 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1176,7 +1200,7 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1184,88 +1208,91 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:4">
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="C78" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
       <c r="C79" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="C80" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="C82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="C83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="C84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>16</v>
-      </c>
       <c r="B85" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1273,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1281,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1289,12 +1316,18 @@
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -1302,18 +1335,15 @@
     </row>
     <row r="90" spans="1:4">
       <c r="C90" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="B91" t="s">
-        <v>9</v>
-      </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -1321,15 +1351,18 @@
     </row>
     <row r="92" spans="1:4">
       <c r="C92" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:4">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -1337,7 +1370,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="C94" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
@@ -1345,7 +1378,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="C95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
@@ -1353,7 +1386,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="C96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
         <v>3</v>
@@ -1361,7 +1394,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B97" t="s">
         <v>1</v>
@@ -1370,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1378,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1386,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1394,88 +1427,91 @@
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:4">
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="C102" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="B103" t="s">
-        <v>9</v>
-      </c>
       <c r="C103" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="C104" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D104" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="C106" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="C107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="C108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>18</v>
-      </c>
       <c r="B109" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1483,7 +1519,7 @@
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1491,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1499,79 +1535,85 @@
         <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="C114" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="B115" t="s">
-        <v>9</v>
-      </c>
       <c r="C115" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="C116" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:4">
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="C118" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="C119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="C120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D120" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B121" t="s">
         <v>1</v>
@@ -1580,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -1588,7 +1630,7 @@
         <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -1596,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -1604,88 +1646,91 @@
         <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:4">
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
       <c r="C125" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="C126" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D126" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="B127" t="s">
-        <v>9</v>
-      </c>
       <c r="C127" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D127" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="C128" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D128" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1</v>
+      </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="C130" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="C131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="C132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D132" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>20</v>
-      </c>
       <c r="B133" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -1693,7 +1738,7 @@
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -1701,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="D135" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -1709,79 +1754,85 @@
         <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>27</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="C138" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="B139" t="s">
-        <v>9</v>
-      </c>
       <c r="C139" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="C140" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D140" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:4">
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="C142" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="C143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="C144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D144" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B145" t="s">
         <v>1</v>
@@ -1790,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -1798,7 +1849,7 @@
         <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -1806,7 +1857,7 @@
         <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -1814,88 +1865,91 @@
         <v>6</v>
       </c>
       <c r="D148" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:4">
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
       <c r="C149" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="C150" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="B151" t="s">
-        <v>9</v>
-      </c>
       <c r="C151" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D151" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="C152" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D152" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>29</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1</v>
+      </c>
       <c r="C153" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="C154" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="C155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D155" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="C156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D156" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" t="s">
-        <v>22</v>
-      </c>
       <c r="B157" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -1903,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -1911,7 +1965,7 @@
         <v>5</v>
       </c>
       <c r="D159" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -1919,79 +1973,85 @@
         <v>6</v>
       </c>
       <c r="D160" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>30</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="C162" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="B163" t="s">
-        <v>9</v>
-      </c>
       <c r="C163" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D163" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="C164" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:4">
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="C166" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D166" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="C167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D167" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="C168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D168" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B169" t="s">
         <v>1</v>
@@ -2000,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="D169" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2008,7 +2068,7 @@
         <v>4</v>
       </c>
       <c r="D170" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2016,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="D171" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2024,88 +2084,91 @@
         <v>6</v>
       </c>
       <c r="D172" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:4">
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
       <c r="C173" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="C174" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="B175" t="s">
-        <v>9</v>
-      </c>
       <c r="C175" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D175" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="C176" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D176" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>32</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="C178" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="C179" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D179" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="C180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" t="s">
-        <v>24</v>
-      </c>
       <c r="B181" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2113,7 +2176,7 @@
         <v>4</v>
       </c>
       <c r="D182" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2121,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="D183" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2129,79 +2192,85 @@
         <v>6</v>
       </c>
       <c r="D184" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>33</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1</v>
+      </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D185" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="C186" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D186" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="B187" t="s">
-        <v>9</v>
-      </c>
       <c r="C187" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D187" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="C188" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D188" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:4">
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
       <c r="C189" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="C190" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D190" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="C191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D191" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="C192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D192" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B193" t="s">
         <v>1</v>
@@ -2210,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="D193" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -2218,7 +2287,7 @@
         <v>4</v>
       </c>
       <c r="D194" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -2226,7 +2295,7 @@
         <v>5</v>
       </c>
       <c r="D195" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -2234,88 +2303,91 @@
         <v>6</v>
       </c>
       <c r="D196" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:4">
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
       <c r="C197" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D197" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="C198" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D198" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="B199" t="s">
-        <v>9</v>
-      </c>
       <c r="C199" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D199" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="C200" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D200" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>35</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1</v>
+      </c>
       <c r="C201" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D201" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="C202" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D202" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="C203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D203" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="C204" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D204" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" t="s">
-        <v>26</v>
-      </c>
       <c r="B205" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>2</v>
       </c>
       <c r="D205" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -2323,7 +2395,7 @@
         <v>4</v>
       </c>
       <c r="D206" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -2331,7 +2403,7 @@
         <v>5</v>
       </c>
       <c r="D207" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -2339,79 +2411,85 @@
         <v>6</v>
       </c>
       <c r="D208" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>36</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1</v>
+      </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D209" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="C210" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D210" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211" spans="1:4">
-      <c r="B211" t="s">
-        <v>9</v>
-      </c>
       <c r="C211" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D211" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="C212" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D212" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213" spans="1:4">
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
       <c r="C213" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D213" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="C214" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D214" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="C215" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D215" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="C216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D216" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B217" t="s">
         <v>1</v>
@@ -2420,7 +2498,7 @@
         <v>2</v>
       </c>
       <c r="D217" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -2428,7 +2506,7 @@
         <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -2436,7 +2514,7 @@
         <v>5</v>
       </c>
       <c r="D219" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -2444,47 +2522,53 @@
         <v>6</v>
       </c>
       <c r="D220" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:4">
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
       <c r="C221" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D221" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="C222" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="B223" t="s">
-        <v>9</v>
-      </c>
       <c r="C223" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D223" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="C224" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D224" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>38</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1</v>
+      </c>
       <c r="C225" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
@@ -2492,7 +2576,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="C226" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D226" t="s">
         <v>3</v>
@@ -2500,7 +2584,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="C227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D227" t="s">
         <v>3</v>
@@ -2508,18 +2592,15 @@
     </row>
     <row r="228" spans="1:4">
       <c r="C228" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" t="s">
-        <v>28</v>
-      </c>
       <c r="B229" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>2</v>
@@ -2553,75 +2634,81 @@
       </c>
     </row>
     <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>39</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1</v>
+      </c>
       <c r="C233" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D233" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="C234" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D234" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:4">
-      <c r="B235" t="s">
-        <v>9</v>
-      </c>
       <c r="C235" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D235" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="C236" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D236" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:4">
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
       <c r="C237" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D237" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="C238" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D238" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="C239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D239" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="C240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D240" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B241" t="s">
         <v>1</v>
@@ -2630,7 +2717,7 @@
         <v>2</v>
       </c>
       <c r="D241" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -2638,7 +2725,7 @@
         <v>4</v>
       </c>
       <c r="D242" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -2646,7 +2733,7 @@
         <v>5</v>
       </c>
       <c r="D243" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -2654,88 +2741,91 @@
         <v>6</v>
       </c>
       <c r="D244" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="245" spans="1:4">
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
       <c r="C245" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="C246" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D246" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="B247" t="s">
-        <v>9</v>
-      </c>
       <c r="C247" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D247" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="C248" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D248" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>41</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1</v>
+      </c>
       <c r="C249" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D249" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="C250" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D250" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="C251" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D251" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="C252" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D252" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" t="s">
-        <v>31</v>
-      </c>
       <c r="B253" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>2</v>
       </c>
       <c r="D253" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -2743,7 +2833,7 @@
         <v>4</v>
       </c>
       <c r="D254" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -2751,7 +2841,7 @@
         <v>5</v>
       </c>
       <c r="D255" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -2759,79 +2849,85 @@
         <v>6</v>
       </c>
       <c r="D256" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>42</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1</v>
+      </c>
       <c r="C257" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D257" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="C258" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D258" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="B259" t="s">
-        <v>9</v>
-      </c>
       <c r="C259" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D259" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="C260" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D260" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="261" spans="1:4">
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
       <c r="C261" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D261" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="C262" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D262" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="C263" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D263" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="C264" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D264" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B265" t="s">
         <v>1</v>
@@ -2840,7 +2936,7 @@
         <v>2</v>
       </c>
       <c r="D265" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -2848,7 +2944,7 @@
         <v>4</v>
       </c>
       <c r="D266" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -2856,7 +2952,7 @@
         <v>5</v>
       </c>
       <c r="D267" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -2864,88 +2960,91 @@
         <v>6</v>
       </c>
       <c r="D268" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="269" spans="1:4">
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
       <c r="C269" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D269" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="C270" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D270" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="271" spans="1:4">
-      <c r="B271" t="s">
-        <v>9</v>
-      </c>
       <c r="C271" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D271" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="C272" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D272" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>45</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1</v>
+      </c>
       <c r="C273" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D273" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="C274" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D274" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="C275" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D275" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="C276" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D276" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" t="s">
-        <v>34</v>
-      </c>
       <c r="B277" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C277" t="s">
         <v>2</v>
       </c>
       <c r="D277" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -2953,7 +3052,7 @@
         <v>4</v>
       </c>
       <c r="D278" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -2961,7 +3060,7 @@
         <v>5</v>
       </c>
       <c r="D279" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -2969,79 +3068,85 @@
         <v>6</v>
       </c>
       <c r="D280" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>46</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1</v>
+      </c>
       <c r="C281" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D281" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="C282" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D282" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="B283" t="s">
-        <v>9</v>
-      </c>
       <c r="C283" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D283" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="C284" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D284" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:4">
+      <c r="B285" t="s">
+        <v>7</v>
+      </c>
       <c r="C285" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D285" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="C286" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D286" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="C287" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D287" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="C288" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D288" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B289" t="s">
         <v>1</v>
@@ -3050,7 +3155,7 @@
         <v>2</v>
       </c>
       <c r="D289" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -3058,7 +3163,7 @@
         <v>4</v>
       </c>
       <c r="D290" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -3066,7 +3171,7 @@
         <v>5</v>
       </c>
       <c r="D291" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -3074,88 +3179,91 @@
         <v>6</v>
       </c>
       <c r="D292" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:4">
+      <c r="B293" t="s">
+        <v>7</v>
+      </c>
       <c r="C293" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D293" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="C294" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D294" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295" spans="1:4">
-      <c r="B295" t="s">
-        <v>9</v>
-      </c>
       <c r="C295" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D295" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="C296" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D296" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>48</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1</v>
+      </c>
       <c r="C297" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D297" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="C298" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D298" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="C299" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D299" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="C300" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D300" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" t="s">
-        <v>36</v>
-      </c>
       <c r="B301" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C301" t="s">
         <v>2</v>
       </c>
       <c r="D301" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -3163,7 +3271,7 @@
         <v>4</v>
       </c>
       <c r="D302" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -3171,7 +3279,7 @@
         <v>5</v>
       </c>
       <c r="D303" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -3179,79 +3287,85 @@
         <v>6</v>
       </c>
       <c r="D304" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>49</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1</v>
+      </c>
       <c r="C305" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D305" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="C306" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D306" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307" spans="1:4">
-      <c r="B307" t="s">
-        <v>9</v>
-      </c>
       <c r="C307" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D307" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="C308" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D308" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:4">
+      <c r="B309" t="s">
+        <v>7</v>
+      </c>
       <c r="C309" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D309" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="C310" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D310" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="C311" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D311" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="C312" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D312" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B313" t="s">
         <v>1</v>
@@ -3260,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="D313" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -3268,7 +3382,7 @@
         <v>4</v>
       </c>
       <c r="D314" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -3276,7 +3390,7 @@
         <v>5</v>
       </c>
       <c r="D315" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -3284,47 +3398,53 @@
         <v>6</v>
       </c>
       <c r="D316" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:4">
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
       <c r="C317" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D317" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="C318" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D318" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:4">
-      <c r="B319" t="s">
-        <v>9</v>
-      </c>
       <c r="C319" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D319" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="C320" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D320" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>51</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1</v>
+      </c>
       <c r="C321" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D321" t="s">
         <v>3</v>
@@ -3332,7 +3452,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="C322" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D322" t="s">
         <v>3</v>
@@ -3340,7 +3460,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="C323" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
@@ -3348,18 +3468,15 @@
     </row>
     <row r="324" spans="1:4">
       <c r="C324" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D324" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="325" spans="1:4">
-      <c r="A325" t="s">
-        <v>38</v>
-      </c>
       <c r="B325" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C325" t="s">
         <v>2</v>
@@ -3393,75 +3510,81 @@
       </c>
     </row>
     <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>52</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1</v>
+      </c>
       <c r="C329" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D329" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="C330" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D330" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331" spans="1:4">
-      <c r="B331" t="s">
-        <v>9</v>
-      </c>
       <c r="C331" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D331" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="C332" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D332" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="333" spans="1:4">
+      <c r="B333" t="s">
+        <v>7</v>
+      </c>
       <c r="C333" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D333" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="C334" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D334" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="C335" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D335" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="C336" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D336" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B337" t="s">
         <v>1</v>
@@ -3470,7 +3593,7 @@
         <v>2</v>
       </c>
       <c r="D337" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -3478,7 +3601,7 @@
         <v>4</v>
       </c>
       <c r="D338" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -3486,7 +3609,7 @@
         <v>5</v>
       </c>
       <c r="D339" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -3494,88 +3617,91 @@
         <v>6</v>
       </c>
       <c r="D340" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:4">
+      <c r="B341" t="s">
+        <v>7</v>
+      </c>
       <c r="C341" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D341" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="C342" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D342" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="1:4">
-      <c r="B343" t="s">
-        <v>9</v>
-      </c>
       <c r="C343" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D343" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="C344" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D344" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>54</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1</v>
+      </c>
       <c r="C345" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D345" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="C346" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D346" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="C347" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D347" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="C348" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D348" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:4">
-      <c r="A349" t="s">
-        <v>40</v>
-      </c>
       <c r="B349" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C349" t="s">
         <v>2</v>
       </c>
       <c r="D349" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -3583,7 +3709,7 @@
         <v>4</v>
       </c>
       <c r="D350" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -3591,7 +3717,7 @@
         <v>5</v>
       </c>
       <c r="D351" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -3599,1649 +3725,7 @@
         <v>6</v>
       </c>
       <c r="D352" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4">
-      <c r="C353" t="s">
-        <v>7</v>
-      </c>
-      <c r="D353" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4">
-      <c r="C354" t="s">
-        <v>8</v>
-      </c>
-      <c r="D354" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4">
-      <c r="B355" t="s">
-        <v>9</v>
-      </c>
-      <c r="C355" t="s">
-        <v>2</v>
-      </c>
-      <c r="D355" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4">
-      <c r="C356" t="s">
-        <v>4</v>
-      </c>
-      <c r="D356" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4">
-      <c r="C357" t="s">
-        <v>5</v>
-      </c>
-      <c r="D357" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4">
-      <c r="C358" t="s">
-        <v>6</v>
-      </c>
-      <c r="D358" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4">
-      <c r="C359" t="s">
-        <v>7</v>
-      </c>
-      <c r="D359" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4">
-      <c r="C360" t="s">
-        <v>8</v>
-      </c>
-      <c r="D360" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4">
-      <c r="A361" t="s">
-        <v>41</v>
-      </c>
-      <c r="B361" t="s">
-        <v>1</v>
-      </c>
-      <c r="C361" t="s">
-        <v>2</v>
-      </c>
-      <c r="D361" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4">
-      <c r="C362" t="s">
-        <v>4</v>
-      </c>
-      <c r="D362" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4">
-      <c r="C363" t="s">
-        <v>5</v>
-      </c>
-      <c r="D363" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4">
-      <c r="C364" t="s">
-        <v>6</v>
-      </c>
-      <c r="D364" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4">
-      <c r="C365" t="s">
-        <v>7</v>
-      </c>
-      <c r="D365" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4">
-      <c r="C366" t="s">
-        <v>8</v>
-      </c>
-      <c r="D366" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4">
-      <c r="B367" t="s">
-        <v>9</v>
-      </c>
-      <c r="C367" t="s">
-        <v>2</v>
-      </c>
-      <c r="D367" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="C368" t="s">
-        <v>4</v>
-      </c>
-      <c r="D368" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="C369" t="s">
-        <v>5</v>
-      </c>
-      <c r="D369" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="C370" t="s">
-        <v>6</v>
-      </c>
-      <c r="D370" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="C371" t="s">
-        <v>7</v>
-      </c>
-      <c r="D371" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="C372" t="s">
-        <v>8</v>
-      </c>
-      <c r="D372" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" t="s">
-        <v>42</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1</v>
-      </c>
-      <c r="C373" t="s">
-        <v>2</v>
-      </c>
-      <c r="D373" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="C374" t="s">
-        <v>4</v>
-      </c>
-      <c r="D374" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="C375" t="s">
-        <v>5</v>
-      </c>
-      <c r="D375" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="C376" t="s">
-        <v>6</v>
-      </c>
-      <c r="D376" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="C377" t="s">
-        <v>7</v>
-      </c>
-      <c r="D377" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="C378" t="s">
-        <v>8</v>
-      </c>
-      <c r="D378" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="B379" t="s">
-        <v>9</v>
-      </c>
-      <c r="C379" t="s">
-        <v>2</v>
-      </c>
-      <c r="D379" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="C380" t="s">
-        <v>4</v>
-      </c>
-      <c r="D380" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="C381" t="s">
-        <v>5</v>
-      </c>
-      <c r="D381" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="C382" t="s">
-        <v>6</v>
-      </c>
-      <c r="D382" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="C383" t="s">
-        <v>7</v>
-      </c>
-      <c r="D383" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="C384" t="s">
-        <v>8</v>
-      </c>
-      <c r="D384" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" t="s">
-        <v>43</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1</v>
-      </c>
-      <c r="C385" t="s">
-        <v>2</v>
-      </c>
-      <c r="D385" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="C386" t="s">
-        <v>4</v>
-      </c>
-      <c r="D386" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="C387" t="s">
-        <v>5</v>
-      </c>
-      <c r="D387" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="C388" t="s">
-        <v>6</v>
-      </c>
-      <c r="D388" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="C389" t="s">
-        <v>7</v>
-      </c>
-      <c r="D389" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="C390" t="s">
-        <v>8</v>
-      </c>
-      <c r="D390" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4">
-      <c r="B391" t="s">
-        <v>9</v>
-      </c>
-      <c r="C391" t="s">
-        <v>2</v>
-      </c>
-      <c r="D391" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4">
-      <c r="C392" t="s">
-        <v>4</v>
-      </c>
-      <c r="D392" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4">
-      <c r="C393" t="s">
-        <v>5</v>
-      </c>
-      <c r="D393" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4">
-      <c r="C394" t="s">
-        <v>6</v>
-      </c>
-      <c r="D394" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4">
-      <c r="C395" t="s">
-        <v>7</v>
-      </c>
-      <c r="D395" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4">
-      <c r="C396" t="s">
-        <v>8</v>
-      </c>
-      <c r="D396" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4">
-      <c r="A397" t="s">
-        <v>44</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1</v>
-      </c>
-      <c r="C397" t="s">
-        <v>2</v>
-      </c>
-      <c r="D397" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4">
-      <c r="C398" t="s">
-        <v>4</v>
-      </c>
-      <c r="D398" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4">
-      <c r="C399" t="s">
-        <v>5</v>
-      </c>
-      <c r="D399" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4">
-      <c r="C400" t="s">
-        <v>6</v>
-      </c>
-      <c r="D400" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4">
-      <c r="C401" t="s">
-        <v>7</v>
-      </c>
-      <c r="D401" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4">
-      <c r="C402" t="s">
-        <v>8</v>
-      </c>
-      <c r="D402" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4">
-      <c r="B403" t="s">
-        <v>9</v>
-      </c>
-      <c r="C403" t="s">
-        <v>2</v>
-      </c>
-      <c r="D403" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4">
-      <c r="C404" t="s">
-        <v>4</v>
-      </c>
-      <c r="D404" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4">
-      <c r="C405" t="s">
-        <v>5</v>
-      </c>
-      <c r="D405" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4">
-      <c r="C406" t="s">
-        <v>6</v>
-      </c>
-      <c r="D406" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4">
-      <c r="C407" t="s">
-        <v>7</v>
-      </c>
-      <c r="D407" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4">
-      <c r="C408" t="s">
-        <v>8</v>
-      </c>
-      <c r="D408" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4">
-      <c r="A409" t="s">
-        <v>45</v>
-      </c>
-      <c r="B409" t="s">
-        <v>1</v>
-      </c>
-      <c r="C409" t="s">
-        <v>2</v>
-      </c>
-      <c r="D409" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4">
-      <c r="C410" t="s">
-        <v>4</v>
-      </c>
-      <c r="D410" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4">
-      <c r="C411" t="s">
-        <v>5</v>
-      </c>
-      <c r="D411" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4">
-      <c r="C412" t="s">
-        <v>6</v>
-      </c>
-      <c r="D412" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4">
-      <c r="C413" t="s">
-        <v>7</v>
-      </c>
-      <c r="D413" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4">
-      <c r="C414" t="s">
-        <v>8</v>
-      </c>
-      <c r="D414" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4">
-      <c r="B415" t="s">
-        <v>9</v>
-      </c>
-      <c r="C415" t="s">
-        <v>2</v>
-      </c>
-      <c r="D415" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4">
-      <c r="C416" t="s">
-        <v>4</v>
-      </c>
-      <c r="D416" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4">
-      <c r="C417" t="s">
-        <v>5</v>
-      </c>
-      <c r="D417" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4">
-      <c r="C418" t="s">
-        <v>6</v>
-      </c>
-      <c r="D418" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4">
-      <c r="C419" t="s">
-        <v>7</v>
-      </c>
-      <c r="D419" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4">
-      <c r="C420" t="s">
-        <v>8</v>
-      </c>
-      <c r="D420" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4">
-      <c r="A421" t="s">
-        <v>46</v>
-      </c>
-      <c r="B421" t="s">
-        <v>1</v>
-      </c>
-      <c r="C421" t="s">
-        <v>2</v>
-      </c>
-      <c r="D421" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4">
-      <c r="C422" t="s">
-        <v>4</v>
-      </c>
-      <c r="D422" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4">
-      <c r="C423" t="s">
-        <v>5</v>
-      </c>
-      <c r="D423" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
-      <c r="C424" t="s">
-        <v>6</v>
-      </c>
-      <c r="D424" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="C425" t="s">
-        <v>7</v>
-      </c>
-      <c r="D425" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
-      <c r="C426" t="s">
-        <v>8</v>
-      </c>
-      <c r="D426" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4">
-      <c r="B427" t="s">
-        <v>9</v>
-      </c>
-      <c r="C427" t="s">
-        <v>2</v>
-      </c>
-      <c r="D427" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4">
-      <c r="C428" t="s">
-        <v>4</v>
-      </c>
-      <c r="D428" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4">
-      <c r="C429" t="s">
-        <v>5</v>
-      </c>
-      <c r="D429" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4">
-      <c r="C430" t="s">
-        <v>6</v>
-      </c>
-      <c r="D430" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4">
-      <c r="C431" t="s">
-        <v>7</v>
-      </c>
-      <c r="D431" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4">
-      <c r="C432" t="s">
-        <v>8</v>
-      </c>
-      <c r="D432" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4">
-      <c r="A433" t="s">
-        <v>47</v>
-      </c>
-      <c r="B433" t="s">
-        <v>1</v>
-      </c>
-      <c r="C433" t="s">
-        <v>2</v>
-      </c>
-      <c r="D433" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4">
-      <c r="C434" t="s">
-        <v>4</v>
-      </c>
-      <c r="D434" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4">
-      <c r="C435" t="s">
-        <v>5</v>
-      </c>
-      <c r="D435" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4">
-      <c r="C436" t="s">
-        <v>6</v>
-      </c>
-      <c r="D436" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4">
-      <c r="C437" t="s">
-        <v>7</v>
-      </c>
-      <c r="D437" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4">
-      <c r="C438" t="s">
-        <v>8</v>
-      </c>
-      <c r="D438" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4">
-      <c r="B439" t="s">
-        <v>9</v>
-      </c>
-      <c r="C439" t="s">
-        <v>2</v>
-      </c>
-      <c r="D439" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4">
-      <c r="C440" t="s">
-        <v>4</v>
-      </c>
-      <c r="D440" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4">
-      <c r="C441" t="s">
-        <v>5</v>
-      </c>
-      <c r="D441" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4">
-      <c r="C442" t="s">
-        <v>6</v>
-      </c>
-      <c r="D442" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4">
-      <c r="C443" t="s">
-        <v>7</v>
-      </c>
-      <c r="D443" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4">
-      <c r="C444" t="s">
-        <v>8</v>
-      </c>
-      <c r="D444" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4">
-      <c r="A445" t="s">
-        <v>48</v>
-      </c>
-      <c r="B445" t="s">
-        <v>1</v>
-      </c>
-      <c r="C445" t="s">
-        <v>2</v>
-      </c>
-      <c r="D445" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4">
-      <c r="C446" t="s">
-        <v>4</v>
-      </c>
-      <c r="D446" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4">
-      <c r="C447" t="s">
-        <v>5</v>
-      </c>
-      <c r="D447" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4">
-      <c r="C448" t="s">
-        <v>6</v>
-      </c>
-      <c r="D448" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4">
-      <c r="C449" t="s">
-        <v>7</v>
-      </c>
-      <c r="D449" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4">
-      <c r="C450" t="s">
-        <v>8</v>
-      </c>
-      <c r="D450" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4">
-      <c r="B451" t="s">
-        <v>9</v>
-      </c>
-      <c r="C451" t="s">
-        <v>2</v>
-      </c>
-      <c r="D451" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4">
-      <c r="C452" t="s">
-        <v>4</v>
-      </c>
-      <c r="D452" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4">
-      <c r="C453" t="s">
-        <v>5</v>
-      </c>
-      <c r="D453" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4">
-      <c r="C454" t="s">
-        <v>6</v>
-      </c>
-      <c r="D454" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4">
-      <c r="C455" t="s">
-        <v>7</v>
-      </c>
-      <c r="D455" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4">
-      <c r="C456" t="s">
-        <v>8</v>
-      </c>
-      <c r="D456" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4">
-      <c r="A457" t="s">
-        <v>49</v>
-      </c>
-      <c r="B457" t="s">
-        <v>1</v>
-      </c>
-      <c r="C457" t="s">
-        <v>2</v>
-      </c>
-      <c r="D457" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4">
-      <c r="C458" t="s">
-        <v>4</v>
-      </c>
-      <c r="D458" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4">
-      <c r="C459" t="s">
-        <v>5</v>
-      </c>
-      <c r="D459" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4">
-      <c r="C460" t="s">
-        <v>6</v>
-      </c>
-      <c r="D460" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4">
-      <c r="C461" t="s">
-        <v>7</v>
-      </c>
-      <c r="D461" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
-      <c r="C462" t="s">
-        <v>8</v>
-      </c>
-      <c r="D462" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4">
-      <c r="B463" t="s">
-        <v>9</v>
-      </c>
-      <c r="C463" t="s">
-        <v>2</v>
-      </c>
-      <c r="D463" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4">
-      <c r="C464" t="s">
-        <v>4</v>
-      </c>
-      <c r="D464" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4">
-      <c r="C465" t="s">
-        <v>5</v>
-      </c>
-      <c r="D465" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4">
-      <c r="C466" t="s">
-        <v>6</v>
-      </c>
-      <c r="D466" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4">
-      <c r="C467" t="s">
-        <v>7</v>
-      </c>
-      <c r="D467" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4">
-      <c r="C468" t="s">
-        <v>8</v>
-      </c>
-      <c r="D468" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4">
-      <c r="A469" t="s">
-        <v>50</v>
-      </c>
-      <c r="B469" t="s">
-        <v>1</v>
-      </c>
-      <c r="C469" t="s">
-        <v>2</v>
-      </c>
-      <c r="D469" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4">
-      <c r="C470" t="s">
-        <v>4</v>
-      </c>
-      <c r="D470" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4">
-      <c r="C471" t="s">
-        <v>5</v>
-      </c>
-      <c r="D471" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4">
-      <c r="C472" t="s">
-        <v>6</v>
-      </c>
-      <c r="D472" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4">
-      <c r="C473" t="s">
-        <v>7</v>
-      </c>
-      <c r="D473" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4">
-      <c r="C474" t="s">
-        <v>8</v>
-      </c>
-      <c r="D474" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4">
-      <c r="B475" t="s">
-        <v>9</v>
-      </c>
-      <c r="C475" t="s">
-        <v>2</v>
-      </c>
-      <c r="D475" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4">
-      <c r="C476" t="s">
-        <v>4</v>
-      </c>
-      <c r="D476" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4">
-      <c r="C477" t="s">
-        <v>5</v>
-      </c>
-      <c r="D477" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
-      <c r="C478" t="s">
-        <v>6</v>
-      </c>
-      <c r="D478" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4">
-      <c r="C479" t="s">
-        <v>7</v>
-      </c>
-      <c r="D479" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4">
-      <c r="C480" t="s">
-        <v>8</v>
-      </c>
-      <c r="D480" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4">
-      <c r="A481" t="s">
-        <v>51</v>
-      </c>
-      <c r="B481" t="s">
-        <v>1</v>
-      </c>
-      <c r="C481" t="s">
-        <v>2</v>
-      </c>
-      <c r="D481" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4">
-      <c r="C482" t="s">
-        <v>4</v>
-      </c>
-      <c r="D482" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4">
-      <c r="C483" t="s">
-        <v>5</v>
-      </c>
-      <c r="D483" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4">
-      <c r="C484" t="s">
-        <v>6</v>
-      </c>
-      <c r="D484" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4">
-      <c r="C485" t="s">
-        <v>7</v>
-      </c>
-      <c r="D485" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4">
-      <c r="C486" t="s">
-        <v>8</v>
-      </c>
-      <c r="D486" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4">
-      <c r="B487" t="s">
-        <v>9</v>
-      </c>
-      <c r="C487" t="s">
-        <v>2</v>
-      </c>
-      <c r="D487" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4">
-      <c r="C488" t="s">
-        <v>4</v>
-      </c>
-      <c r="D488" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4">
-      <c r="C489" t="s">
-        <v>5</v>
-      </c>
-      <c r="D489" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4">
-      <c r="C490" t="s">
-        <v>6</v>
-      </c>
-      <c r="D490" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4">
-      <c r="C491" t="s">
-        <v>7</v>
-      </c>
-      <c r="D491" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4">
-      <c r="C492" t="s">
-        <v>8</v>
-      </c>
-      <c r="D492" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
-      <c r="A493" t="s">
-        <v>52</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1</v>
-      </c>
-      <c r="C493" t="s">
-        <v>2</v>
-      </c>
-      <c r="D493" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4">
-      <c r="C494" t="s">
-        <v>4</v>
-      </c>
-      <c r="D494" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4">
-      <c r="C495" t="s">
-        <v>5</v>
-      </c>
-      <c r="D495" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
-      <c r="C496" t="s">
-        <v>6</v>
-      </c>
-      <c r="D496" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4">
-      <c r="C497" t="s">
-        <v>7</v>
-      </c>
-      <c r="D497" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4">
-      <c r="C498" t="s">
-        <v>8</v>
-      </c>
-      <c r="D498" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4">
-      <c r="B499" t="s">
-        <v>9</v>
-      </c>
-      <c r="C499" t="s">
-        <v>2</v>
-      </c>
-      <c r="D499" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4">
-      <c r="C500" t="s">
-        <v>4</v>
-      </c>
-      <c r="D500" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4">
-      <c r="C501" t="s">
-        <v>5</v>
-      </c>
-      <c r="D501" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4">
-      <c r="C502" t="s">
-        <v>6</v>
-      </c>
-      <c r="D502" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4">
-      <c r="C503" t="s">
-        <v>7</v>
-      </c>
-      <c r="D503" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4">
-      <c r="C504" t="s">
-        <v>8</v>
-      </c>
-      <c r="D504" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4">
-      <c r="A505" t="s">
-        <v>53</v>
-      </c>
-      <c r="B505" t="s">
-        <v>1</v>
-      </c>
-      <c r="C505" t="s">
-        <v>2</v>
-      </c>
-      <c r="D505" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4">
-      <c r="C506" t="s">
-        <v>4</v>
-      </c>
-      <c r="D506" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4">
-      <c r="C507" t="s">
-        <v>5</v>
-      </c>
-      <c r="D507" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4">
-      <c r="C508" t="s">
-        <v>6</v>
-      </c>
-      <c r="D508" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4">
-      <c r="C509" t="s">
-        <v>7</v>
-      </c>
-      <c r="D509" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4">
-      <c r="C510" t="s">
-        <v>8</v>
-      </c>
-      <c r="D510" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4">
-      <c r="B511" t="s">
-        <v>9</v>
-      </c>
-      <c r="C511" t="s">
-        <v>2</v>
-      </c>
-      <c r="D511" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4">
-      <c r="C512" t="s">
-        <v>4</v>
-      </c>
-      <c r="D512" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4">
-      <c r="C513" t="s">
-        <v>5</v>
-      </c>
-      <c r="D513" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4">
-      <c r="C514" t="s">
-        <v>6</v>
-      </c>
-      <c r="D514" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4">
-      <c r="C515" t="s">
-        <v>7</v>
-      </c>
-      <c r="D515" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4">
-      <c r="C516" t="s">
-        <v>8</v>
-      </c>
-      <c r="D516" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4">
-      <c r="A517" t="s">
-        <v>54</v>
-      </c>
-      <c r="B517" t="s">
-        <v>1</v>
-      </c>
-      <c r="C517" t="s">
-        <v>2</v>
-      </c>
-      <c r="D517" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4">
-      <c r="C518" t="s">
-        <v>4</v>
-      </c>
-      <c r="D518" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4">
-      <c r="C519" t="s">
-        <v>5</v>
-      </c>
-      <c r="D519" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4">
-      <c r="C520" t="s">
-        <v>6</v>
-      </c>
-      <c r="D520" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4">
-      <c r="C521" t="s">
-        <v>7</v>
-      </c>
-      <c r="D521" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4">
-      <c r="C522" t="s">
-        <v>8</v>
-      </c>
-      <c r="D522" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4">
-      <c r="B523" t="s">
-        <v>9</v>
-      </c>
-      <c r="C523" t="s">
-        <v>2</v>
-      </c>
-      <c r="D523" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4">
-      <c r="C524" t="s">
-        <v>4</v>
-      </c>
-      <c r="D524" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4">
-      <c r="C525" t="s">
-        <v>5</v>
-      </c>
-      <c r="D525" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4">
-      <c r="C526" t="s">
-        <v>6</v>
-      </c>
-      <c r="D526" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4">
-      <c r="C527" t="s">
-        <v>7</v>
-      </c>
-      <c r="D527" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4">
-      <c r="C528" t="s">
-        <v>8</v>
-      </c>
-      <c r="D528" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4">
-      <c r="A529" t="s">
-        <v>55</v>
-      </c>
-      <c r="B529" t="s">
-        <v>1</v>
-      </c>
-      <c r="C529" t="s">
-        <v>2</v>
-      </c>
-      <c r="D529" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4">
-      <c r="C530" t="s">
-        <v>4</v>
-      </c>
-      <c r="D530" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4">
-      <c r="C531" t="s">
-        <v>5</v>
-      </c>
-      <c r="D531" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4">
-      <c r="C532" t="s">
-        <v>6</v>
-      </c>
-      <c r="D532" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4">
-      <c r="C533" t="s">
-        <v>7</v>
-      </c>
-      <c r="D533" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4">
-      <c r="C534" t="s">
-        <v>8</v>
-      </c>
-      <c r="D534" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4">
-      <c r="B535" t="s">
-        <v>9</v>
-      </c>
-      <c r="C535" t="s">
-        <v>2</v>
-      </c>
-      <c r="D535" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4">
-      <c r="C536" t="s">
-        <v>4</v>
-      </c>
-      <c r="D536" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4">
-      <c r="C537" t="s">
-        <v>5</v>
-      </c>
-      <c r="D537" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4">
-      <c r="C538" t="s">
-        <v>6</v>
-      </c>
-      <c r="D538" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4">
-      <c r="C539" t="s">
-        <v>7</v>
-      </c>
-      <c r="D539" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4">
-      <c r="C540" t="s">
-        <v>8</v>
-      </c>
-      <c r="D540" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
